--- a/data/trans_dic/P70C1_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70C1_R_2023-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2012738293918942</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3122216185509552</v>
+        <v>0.3122216185509551</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2398164726768124</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1344655469365167</v>
+        <v>0.1398447622681181</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2210052929797597</v>
+        <v>0.228507230655526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1877068519886534</v>
+        <v>0.1873337441101035</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2749329434250837</v>
+        <v>0.2769360500747411</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3993215378315819</v>
+        <v>0.4048104280231134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2951950968787116</v>
+        <v>0.2965198684937586</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.232891655428547</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2860429466521308</v>
+        <v>0.2860429466521309</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2554816019575775</v>
+        <v>0.2554816019575776</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2075204869294172</v>
+        <v>0.2063984684207367</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2614506403089296</v>
+        <v>0.2598636479997723</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2374054413769205</v>
+        <v>0.2351173330511238</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2634292134915236</v>
+        <v>0.2626396859010625</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3139460338798162</v>
+        <v>0.3136075910442013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2774324247681408</v>
+        <v>0.2748954849109639</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0889191677515761</v>
+        <v>0.09089953919237954</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.177011241473338</v>
+        <v>0.1732108245136914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1407040625189361</v>
+        <v>0.1414844440596665</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1640393742266086</v>
+        <v>0.161000295463836</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2453228194177055</v>
+        <v>0.2416733929761111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1897869181552385</v>
+        <v>0.1912523429997616</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.2625746713897062</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2286108259715224</v>
+        <v>0.2286108259715223</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1815825247272638</v>
+        <v>0.1829684026139482</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2417407587445207</v>
+        <v>0.2432330802245173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2136829253988558</v>
+        <v>0.213114772322439</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2243186221645143</v>
+        <v>0.2246841342820922</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2836156948789647</v>
+        <v>0.2854020936053954</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2442132800600816</v>
+        <v>0.2428852095918925</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21383</v>
+        <v>22238</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18708</v>
+        <v>19343</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45739</v>
+        <v>45648</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43720</v>
+        <v>44039</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33803</v>
+        <v>34267</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>71931</v>
+        <v>72254</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>261969</v>
+        <v>260552</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>243961</v>
+        <v>242481</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>521219</v>
+        <v>516196</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>332547</v>
+        <v>331550</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>292945</v>
+        <v>292629</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>609098</v>
+        <v>603528</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42810</v>
+        <v>43764</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>84297</v>
+        <v>82487</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>134749</v>
+        <v>135496</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78977</v>
+        <v>77514</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>116829</v>
+        <v>115091</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>181754</v>
+        <v>183158</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>345524</v>
+        <v>348161</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>361156</v>
+        <v>363386</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>725844</v>
+        <v>723914</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>426844</v>
+        <v>427540</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>423717</v>
+        <v>426386</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>829551</v>
+        <v>825040</v>
       </c>
     </row>
     <row r="20">
